--- a/Plan/2016.xlsx
+++ b/Plan/2016.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>一级项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.功能测试
+2.文档整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,16 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -277,6 +277,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -585,51 +594,51 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="25.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="20.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" style="4" customWidth="1"/>
     <col min="4" max="4" width="27.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="34" style="1" customWidth="1"/>
     <col min="6" max="7" width="16.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" s="7" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -646,9 +655,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -665,9 +674,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
@@ -682,9 +691,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
@@ -699,9 +708,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="3" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -717,25 +726,25 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="D8" s="2" t="s">
         <v>16</v>
       </c>
@@ -748,198 +757,198 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
